--- a/CustomLocalization/Localization/RogueTech/RU/Jihad Flashpoint/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Jihad Flashpoint/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="524">
   <si>
     <t>c_fp_testpilot_ambushConvoy.contractName</t>
   </si>
@@ -67,7 +67,9 @@
     <t>c_fp_testpilot_ambushConvoy.dialogueList2.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">It appears this was beyond the abilities of your crew to accomplish. We will try again sometime. </t>
+    <t xml:space="preserve">It appears this was beyond the abilities of your crew to accomplish. We will try again sometime.
+---
+It appears this was beyond the abilities of your crew to accomplish. We will try again sometime. </t>
   </si>
   <si>
     <t>It appears this was beyond the abilities of your crew to accomplish. We will try again sometime.</t>
@@ -82,7 +84,9 @@
     <t>c_fp_testpilot_ambushConvoy.dialogueList4.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">That's got it, keep firing on those targets until they are neutralized. </t>
+    <t xml:space="preserve">That's got it, keep firing on those targets until they are neutralized.
+---
+That's got it, keep firing on those targets until they are neutralized. </t>
   </si>
   <si>
     <t>That's got it, keep firing on those targets until they are neutralized.</t>
@@ -103,7 +107,9 @@
     <t>c_fp_testpilot_ambushConvoy.dialogueList7.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">One down. Keep engaging those threats and we'll be out of here. </t>
+    <t xml:space="preserve">One down. Keep engaging those threats and we'll be out of here.
+---
+One down. Keep engaging those threats and we'll be out of here. </t>
   </si>
   <si>
     <t>One down. Keep engaging those threats and we'll be out of here.</t>
@@ -631,7 +637,9 @@
     <t>c_fp_testpilot_rescue.dialogueList6.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">[GENERIC VO] The asset has been recovered, Commander. Good work. </t>
+    <t xml:space="preserve">[GENERIC VO] The asset has been recovered, Commander. Good work.
+---
+[GENERIC VO] The asset has been recovered, Commander. Good work. </t>
   </si>
   <si>
     <t>[GENERIC VO] The asset has been recovered, Commander. Good work.</t>
@@ -793,7 +801,9 @@
     <t>c_fp_testpilot2_assassinate.dialogueList4.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">Readings indicate the ambushing units are out of commission. The employer will be pleased. </t>
+    <t xml:space="preserve">Readings indicate the ambushing units are out of commission. The employer will be pleased.
+---
+Readings indicate the ambushing units are out of commission. The employer will be pleased. </t>
   </si>
   <si>
     <t>Readings indicate the ambushing units are out of commission. The employer will be pleased.</t>
@@ -1153,7 +1163,9 @@
     <t>c_fp_testpilot2_defendBase.dialogueList4.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements. </t>
+    <t xml:space="preserve">Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements.
+---
+Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements. </t>
   </si>
   <si>
     <t>Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements.</t>
@@ -1162,7 +1174,9 @@
     <t>c_fp_testpilot2_defendBase.dialogueList5.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">Be advised, some of the target buildings are sustaining damage. Your mission is to keep them standing. </t>
+    <t xml:space="preserve">Be advised, some of the target buildings are sustaining damage. Your mission is to keep them standing.
+---
+Be advised, some of the target buildings are sustaining damage. Your mission is to keep them standing. </t>
   </si>
   <si>
     <t>Be advised, some of the target buildings are sustaining damage. Your mission is to keep them standing.</t>
@@ -1369,9 +1383,6 @@
     <t>c_fp_testpilot3_simpleBattle1.objectiveList0.title</t>
   </si>
   <si>
-    <t xml:space="preserve">Destroy the First  Patrol</t>
-  </si>
-  <si>
     <t>Destroy the First Patrol</t>
   </si>
   <si>
@@ -1384,9 +1395,6 @@
     <t>c_fp_testpilot3_simpleBattle1.objectiveList1.title</t>
   </si>
   <si>
-    <t xml:space="preserve">Destroy the Second  Patrol</t>
-  </si>
-  <si>
     <t>Destroy the Second Patrol</t>
   </si>
   <si>
@@ -1498,7 +1506,9 @@
     <t>c_fp_testpilot3_simpleBattle3.dialogueList1.dialogueContent2.words</t>
   </si>
   <si>
-    <t xml:space="preserve">A well deserved one. I try to keep my guys happy. </t>
+    <t xml:space="preserve">A well deserved one. I try to keep my guys happy.
+---
+A well deserved one. I try to keep my guys happy. </t>
   </si>
   <si>
     <t>A well deserved one. I try to keep my guys happy.</t>
@@ -1605,12 +1615,17 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000" tint="0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1629,7 +1644,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1927,13 +1942,13 @@
   <dimension ref="A1:C268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection sqref="A1:C268"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
-    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="2" width="9.140625" customWidth="1" style="2"/>
+    <col min="3" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2024,14 +2039,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
+    <row r="9" s="3" customFormat="1">
+      <c r="A9" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2046,14 +2061,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="s">
+    <row r="11" s="3" customFormat="1">
+      <c r="A11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2079,14 +2094,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2" t="s">
+    <row r="14" s="3" customFormat="1">
+      <c r="A14" s="3" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3047,14 +3062,14 @@
         <v>203</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="2" t="s">
+    <row r="102" s="3" customFormat="1">
+      <c r="A102" s="3" t="s">
         <v>204</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="3" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3344,14 +3359,14 @@
         <v>257</v>
       </c>
     </row>
-    <row r="129">
-      <c r="A129" s="2" t="s">
+    <row r="129" s="3" customFormat="1">
+      <c r="A129" s="3" t="s">
         <v>258</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="3" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4004,25 +4019,25 @@
         <v>377</v>
       </c>
     </row>
-    <row r="189">
-      <c r="A189" s="2" t="s">
+    <row r="189" s="3" customFormat="1">
+      <c r="A189" s="3" t="s">
         <v>378</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="3" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="s">
+    <row r="190" s="3" customFormat="1">
+      <c r="A190" s="3" t="s">
         <v>381</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="3" t="s">
         <v>383</v>
       </c>
     </row>
@@ -4408,111 +4423,111 @@
         <v>451</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="B226" s="2" t="s">
-        <v>454</v>
-      </c>
       <c r="C226" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="B227" s="2" t="s">
-        <v>456</v>
-      </c>
       <c r="C227" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>445</v>
@@ -4523,18 +4538,18 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>449</v>
@@ -4545,161 +4560,161 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="B246" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="247" s="3" customFormat="1">
+      <c r="A247" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="B246" s="2" t="s">
+      <c r="B247" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C246" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="2" t="s">
+      <c r="C247" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>445</v>
@@ -4710,29 +4725,29 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>355</v>
@@ -4743,29 +4758,29 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>179</v>
@@ -4776,18 +4791,18 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>1</v>
@@ -4798,18 +4813,18 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>1</v>
@@ -4820,18 +4835,18 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>64</v>
@@ -4842,18 +4857,18 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>64</v>
@@ -4864,18 +4879,18 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>179</v>

--- a/CustomLocalization/Localization/RogueTech/RU/Jihad Flashpoint/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Jihad Flashpoint/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="526">
   <si>
     <t>c_fp_testpilot_ambushConvoy.contractName</t>
   </si>
@@ -67,9 +67,7 @@
     <t>c_fp_testpilot_ambushConvoy.dialogueList2.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">It appears this was beyond the abilities of your crew to accomplish. We will try again sometime.
----
-It appears this was beyond the abilities of your crew to accomplish. We will try again sometime. </t>
+    <t xml:space="preserve">It appears this was beyond the abilities of your crew to accomplish. We will try again sometime. </t>
   </si>
   <si>
     <t>It appears this was beyond the abilities of your crew to accomplish. We will try again sometime.</t>
@@ -84,9 +82,7 @@
     <t>c_fp_testpilot_ambushConvoy.dialogueList4.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">That's got it, keep firing on those targets until they are neutralized.
----
-That's got it, keep firing on those targets until they are neutralized. </t>
+    <t xml:space="preserve">That's got it, keep firing on those targets until they are neutralized. </t>
   </si>
   <si>
     <t>That's got it, keep firing on those targets until they are neutralized.</t>
@@ -107,9 +103,7 @@
     <t>c_fp_testpilot_ambushConvoy.dialogueList7.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">One down. Keep engaging those threats and we'll be out of here.
----
-One down. Keep engaging those threats and we'll be out of here. </t>
+    <t xml:space="preserve">One down. Keep engaging those threats and we'll be out of here. </t>
   </si>
   <si>
     <t>One down. Keep engaging those threats and we'll be out of here.</t>
@@ -637,9 +631,7 @@
     <t>c_fp_testpilot_rescue.dialogueList6.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">[GENERIC VO] The asset has been recovered, Commander. Good work.
----
-[GENERIC VO] The asset has been recovered, Commander. Good work. </t>
+    <t xml:space="preserve">[GENERIC VO] The asset has been recovered, Commander. Good work. </t>
   </si>
   <si>
     <t>[GENERIC VO] The asset has been recovered, Commander. Good work.</t>
@@ -801,9 +793,7 @@
     <t>c_fp_testpilot2_assassinate.dialogueList4.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">Readings indicate the ambushing units are out of commission. The employer will be pleased.
----
-Readings indicate the ambushing units are out of commission. The employer will be pleased. </t>
+    <t xml:space="preserve">Readings indicate the ambushing units are out of commission. The employer will be pleased. </t>
   </si>
   <si>
     <t>Readings indicate the ambushing units are out of commission. The employer will be pleased.</t>
@@ -1163,9 +1153,7 @@
     <t>c_fp_testpilot2_defendBase.dialogueList4.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements.
----
-Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements. </t>
+    <t xml:space="preserve">Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements. </t>
   </si>
   <si>
     <t>Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements.</t>
@@ -1174,9 +1162,7 @@
     <t>c_fp_testpilot2_defendBase.dialogueList5.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">Be advised, some of the target buildings are sustaining damage. Your mission is to keep them standing.
----
-Be advised, some of the target buildings are sustaining damage. Your mission is to keep them standing. </t>
+    <t xml:space="preserve">Be advised, some of the target buildings are sustaining damage. Your mission is to keep them standing. </t>
   </si>
   <si>
     <t>Be advised, some of the target buildings are sustaining damage. Your mission is to keep them standing.</t>
@@ -1383,6 +1369,9 @@
     <t>c_fp_testpilot3_simpleBattle1.objectiveList0.title</t>
   </si>
   <si>
+    <t xml:space="preserve">Destroy the First  Patrol</t>
+  </si>
+  <si>
     <t>Destroy the First Patrol</t>
   </si>
   <si>
@@ -1395,6 +1384,9 @@
     <t>c_fp_testpilot3_simpleBattle1.objectiveList1.title</t>
   </si>
   <si>
+    <t xml:space="preserve">Destroy the Second  Patrol</t>
+  </si>
+  <si>
     <t>Destroy the Second Patrol</t>
   </si>
   <si>
@@ -1506,9 +1498,7 @@
     <t>c_fp_testpilot3_simpleBattle3.dialogueList1.dialogueContent2.words</t>
   </si>
   <si>
-    <t xml:space="preserve">A well deserved one. I try to keep my guys happy.
----
-A well deserved one. I try to keep my guys happy. </t>
+    <t xml:space="preserve">A well deserved one. I try to keep my guys happy. </t>
   </si>
   <si>
     <t>A well deserved one. I try to keep my guys happy.</t>
@@ -1615,17 +1605,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000" tint="0"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1644,7 +1629,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1942,13 +1927,13 @@
   <dimension ref="A1:C268"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C268"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1" style="2"/>
-    <col min="3" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="1" width="9.140625" customWidth="1" style="2"/>
+    <col min="2" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2039,14 +2024,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" s="3" customFormat="1">
-      <c r="A9" s="3" t="s">
+    <row r="9">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2061,14 +2046,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" s="3" customFormat="1">
-      <c r="A11" s="3" t="s">
+    <row r="11">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2094,14 +2079,14 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" s="3" customFormat="1">
-      <c r="A14" s="3" t="s">
+    <row r="14">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3062,14 +3047,14 @@
         <v>203</v>
       </c>
     </row>
-    <row r="102" s="3" customFormat="1">
-      <c r="A102" s="3" t="s">
+    <row r="102">
+      <c r="A102" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="2" t="s">
         <v>206</v>
       </c>
     </row>
@@ -3359,14 +3344,14 @@
         <v>257</v>
       </c>
     </row>
-    <row r="129" s="3" customFormat="1">
-      <c r="A129" s="3" t="s">
+    <row r="129">
+      <c r="A129" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="2" t="s">
         <v>260</v>
       </c>
     </row>
@@ -4019,25 +4004,25 @@
         <v>377</v>
       </c>
     </row>
-    <row r="189" s="3" customFormat="1">
-      <c r="A189" s="3" t="s">
+    <row r="189">
+      <c r="A189" s="2" t="s">
         <v>378</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="2" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="190" s="3" customFormat="1">
-      <c r="A190" s="3" t="s">
+    <row r="190">
+      <c r="A190" s="2" t="s">
         <v>381</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="2" t="s">
         <v>383</v>
       </c>
     </row>
@@ -4423,111 +4408,111 @@
         <v>451</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>445</v>
@@ -4538,18 +4523,18 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>449</v>
@@ -4560,161 +4545,161 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="247" s="3" customFormat="1">
-      <c r="A247" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="s">
+        <v>493</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>445</v>
@@ -4725,29 +4710,29 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>355</v>
@@ -4758,29 +4743,29 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>179</v>
@@ -4791,18 +4776,18 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B259" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="C259" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>1</v>
@@ -4813,18 +4798,18 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>1</v>
@@ -4835,18 +4820,18 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>64</v>
@@ -4857,18 +4842,18 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>64</v>
@@ -4879,18 +4864,18 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>179</v>

--- a/CustomLocalization/Localization/RogueTech/RU/Jihad Flashpoint/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Jihad Flashpoint/LocalizationDef.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="526">
   <si>
     <t>c_fp_testpilot_ambushConvoy.contractName</t>
   </si>
@@ -67,9 +67,7 @@
     <t>c_fp_testpilot_ambushConvoy.dialogueList2.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">It appears this was beyond the abilities of your crew to accomplish. We will try again sometime.
----
-It appears this was beyond the abilities of your crew to accomplish. We will try again sometime. </t>
+    <t xml:space="preserve">It appears this was beyond the abilities of your crew to accomplish. We will try again sometime. </t>
   </si>
   <si>
     <t>It appears this was beyond the abilities of your crew to accomplish. We will try again sometime.</t>
@@ -84,9 +82,7 @@
     <t>c_fp_testpilot_ambushConvoy.dialogueList4.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">That's got it, keep firing on those targets until they are neutralized.
----
-That's got it, keep firing on those targets until they are neutralized. </t>
+    <t xml:space="preserve">That's got it, keep firing on those targets until they are neutralized. </t>
   </si>
   <si>
     <t>That's got it, keep firing on those targets until they are neutralized.</t>
@@ -107,9 +103,7 @@
     <t>c_fp_testpilot_ambushConvoy.dialogueList7.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">One down. Keep engaging those threats and we'll be out of here.
----
-One down. Keep engaging those threats and we'll be out of here. </t>
+    <t xml:space="preserve">One down. Keep engaging those threats and we'll be out of here. </t>
   </si>
   <si>
     <t>One down. Keep engaging those threats and we'll be out of here.</t>
@@ -637,9 +631,7 @@
     <t>c_fp_testpilot_rescue.dialogueList6.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">[GENERIC VO] The asset has been recovered, Commander. Good work.
----
-[GENERIC VO] The asset has been recovered, Commander. Good work. </t>
+    <t xml:space="preserve">[GENERIC VO] The asset has been recovered, Commander. Good work. </t>
   </si>
   <si>
     <t>[GENERIC VO] The asset has been recovered, Commander. Good work.</t>
@@ -801,9 +793,7 @@
     <t>c_fp_testpilot2_assassinate.dialogueList4.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">Readings indicate the ambushing units are out of commission. The employer will be pleased.
----
-Readings indicate the ambushing units are out of commission. The employer will be pleased. </t>
+    <t xml:space="preserve">Readings indicate the ambushing units are out of commission. The employer will be pleased. </t>
   </si>
   <si>
     <t>Readings indicate the ambushing units are out of commission. The employer will be pleased.</t>
@@ -1163,9 +1153,7 @@
     <t>c_fp_testpilot2_defendBase.dialogueList4.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements.
----
-Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements. </t>
+    <t xml:space="preserve">Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements. </t>
   </si>
   <si>
     <t>Warning commander, sensors are reading multiple contacts approaching from multiple vectors. Looks like the attacking force has brought reinforcements.</t>
@@ -1174,9 +1162,7 @@
     <t>c_fp_testpilot2_defendBase.dialogueList5.dialogueContent0.words</t>
   </si>
   <si>
-    <t xml:space="preserve">Be advised, some of the target buildings are sustaining damage. Your mission is to keep them standing.
----
-Be advised, some of the target buildings are sustaining damage. Your mission is to keep them standing. </t>
+    <t xml:space="preserve">Be advised, some of the target buildings are sustaining damage. Your mission is to keep them standing. </t>
   </si>
   <si>
     <t>Be advised, some of the target buildings are sustaining damage. Your mission is to keep them standing.</t>
@@ -1383,6 +1369,9 @@
     <t>c_fp_testpilot3_simpleBattle1.objectiveList0.title</t>
   </si>
   <si>
+    <t xml:space="preserve">Destroy the First  Patrol</t>
+  </si>
+  <si>
     <t>Destroy the First Patrol</t>
   </si>
   <si>
@@ -1395,6 +1384,9 @@
     <t>c_fp_testpilot3_simpleBattle1.objectiveList1.title</t>
   </si>
   <si>
+    <t xml:space="preserve">Destroy the Second  Patrol</t>
+  </si>
+  <si>
     <t>Destroy the Second Patrol</t>
   </si>
   <si>
@@ -1506,9 +1498,7 @@
     <t>c_fp_testpilot3_simpleBattle3.dialogueList1.dialogueContent2.words</t>
   </si>
   <si>
-    <t xml:space="preserve">A well deserved one. I try to keep my guys happy.
----
-A well deserved one. I try to keep my guys happy. </t>
+    <t xml:space="preserve">A well deserved one. I try to keep my guys happy. </t>
   </si>
   <si>
     <t>A well deserved one. I try to keep my guys happy.</t>
@@ -1615,17 +1605,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000" tint="0"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1644,7 +1629,7 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="2" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1939,16 +1924,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C268"/>
+  <dimension ref="A1:E268"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C268"/>
+    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
+      <selection activeCell="B212" sqref="B212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="9.140625" customWidth="1" style="2"/>
-    <col min="3" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="1" max="3" width="75.28515625" customWidth="1" style="2"/>
+    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
+    <col min="5" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1961,6 +1947,9 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E1" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1972,6 +1961,9 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
@@ -1983,6 +1975,9 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
@@ -1994,6 +1989,9 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="E4" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
@@ -2005,6 +2003,9 @@
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
+      <c r="E5" s="2">
+        <v>5</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -2016,6 +2017,9 @@
       <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="E6" s="2">
+        <v>6</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -2027,6 +2031,9 @@
       <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E7" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
@@ -2038,16 +2045,22 @@
       <c r="C8" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" s="3" customFormat="1">
-      <c r="A9" s="3" t="s">
+      <c r="E8" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>18</v>
+      </c>
+      <c r="E9" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -2060,16 +2073,22 @@
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" s="3" customFormat="1">
-      <c r="A11" s="3" t="s">
+      <c r="E10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>23</v>
+      </c>
+      <c r="E11" s="2">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -2082,6 +2101,9 @@
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="E12" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
@@ -2093,16 +2115,22 @@
       <c r="C13" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" s="3" customFormat="1">
-      <c r="A14" s="3" t="s">
+      <c r="E13" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="E14" s="2">
+        <v>14</v>
       </c>
     </row>
     <row r="15">
@@ -2115,6 +2143,9 @@
       <c r="C15" s="2" t="s">
         <v>32</v>
       </c>
+      <c r="E15" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -2126,6 +2157,9 @@
       <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="E16" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
@@ -2137,6 +2171,9 @@
       <c r="C17" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="E17" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
@@ -2148,6 +2185,9 @@
       <c r="C18" s="2" t="s">
         <v>38</v>
       </c>
+      <c r="E18" s="2">
+        <v>18</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
@@ -2159,6 +2199,9 @@
       <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="E19" s="2">
+        <v>19</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
@@ -2170,6 +2213,9 @@
       <c r="C20" s="2" t="s">
         <v>42</v>
       </c>
+      <c r="E20" s="2">
+        <v>20</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
@@ -2181,6 +2227,9 @@
       <c r="C21" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="E21" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
@@ -2192,6 +2241,9 @@
       <c r="C22" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="E22" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
@@ -2203,6 +2255,9 @@
       <c r="C23" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="E23" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
@@ -2214,6 +2269,9 @@
       <c r="C24" s="2" t="s">
         <v>50</v>
       </c>
+      <c r="E24" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
@@ -2225,6 +2283,9 @@
       <c r="C25" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="E25" s="2">
+        <v>25</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -2236,6 +2297,9 @@
       <c r="C26" s="2" t="s">
         <v>54</v>
       </c>
+      <c r="E26" s="2">
+        <v>26</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
@@ -2247,6 +2311,9 @@
       <c r="C27" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="E27" s="2">
+        <v>27</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
@@ -2258,6 +2325,9 @@
       <c r="C28" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="E28" s="2">
+        <v>28</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
@@ -2269,6 +2339,9 @@
       <c r="C29" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="E29" s="2">
+        <v>29</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
@@ -2280,6 +2353,9 @@
       <c r="C30" s="2" t="s">
         <v>62</v>
       </c>
+      <c r="E30" s="2">
+        <v>30</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
@@ -2291,6 +2367,9 @@
       <c r="C31" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="E31" s="2">
+        <v>31</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
@@ -2302,6 +2381,9 @@
       <c r="C32" s="2" t="s">
         <v>66</v>
       </c>
+      <c r="E32" s="2">
+        <v>32</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
@@ -2313,6 +2395,9 @@
       <c r="C33" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="E33" s="2">
+        <v>33</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
@@ -2324,6 +2409,9 @@
       <c r="C34" s="2" t="s">
         <v>70</v>
       </c>
+      <c r="E34" s="2">
+        <v>34</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
@@ -2335,6 +2423,9 @@
       <c r="C35" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="E35" s="2">
+        <v>35</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
@@ -2346,6 +2437,9 @@
       <c r="C36" s="2" t="s">
         <v>74</v>
       </c>
+      <c r="E36" s="2">
+        <v>36</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
@@ -2357,6 +2451,9 @@
       <c r="C37" s="2" t="s">
         <v>76</v>
       </c>
+      <c r="E37" s="2">
+        <v>37</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
@@ -2368,6 +2465,9 @@
       <c r="C38" s="2" t="s">
         <v>78</v>
       </c>
+      <c r="E38" s="2">
+        <v>38</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
@@ -2379,6 +2479,9 @@
       <c r="C39" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="E39" s="2">
+        <v>39</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
@@ -2390,6 +2493,9 @@
       <c r="C40" s="2" t="s">
         <v>82</v>
       </c>
+      <c r="E40" s="2">
+        <v>40</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
@@ -2401,6 +2507,9 @@
       <c r="C41" s="2" t="s">
         <v>84</v>
       </c>
+      <c r="E41" s="2">
+        <v>41</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
@@ -2412,6 +2521,9 @@
       <c r="C42" s="2" t="s">
         <v>87</v>
       </c>
+      <c r="E42" s="2">
+        <v>42</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
@@ -2423,6 +2535,9 @@
       <c r="C43" s="2" t="s">
         <v>89</v>
       </c>
+      <c r="E43" s="2">
+        <v>43</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
@@ -2434,6 +2549,9 @@
       <c r="C44" s="2" t="s">
         <v>91</v>
       </c>
+      <c r="E44" s="2">
+        <v>44</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
@@ -2445,6 +2563,9 @@
       <c r="C45" s="2" t="s">
         <v>93</v>
       </c>
+      <c r="E45" s="2">
+        <v>45</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
@@ -2456,6 +2577,9 @@
       <c r="C46" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="E46" s="2">
+        <v>46</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
@@ -2467,6 +2591,9 @@
       <c r="C47" s="2" t="s">
         <v>97</v>
       </c>
+      <c r="E47" s="2">
+        <v>47</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
@@ -2478,6 +2605,9 @@
       <c r="C48" s="2" t="s">
         <v>99</v>
       </c>
+      <c r="E48" s="2">
+        <v>48</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
@@ -2489,6 +2619,9 @@
       <c r="C49" s="2" t="s">
         <v>101</v>
       </c>
+      <c r="E49" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
@@ -2500,6 +2633,9 @@
       <c r="C50" s="2" t="s">
         <v>103</v>
       </c>
+      <c r="E50" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
@@ -2511,6 +2647,9 @@
       <c r="C51" s="2" t="s">
         <v>105</v>
       </c>
+      <c r="E51" s="2">
+        <v>51</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
@@ -2522,6 +2661,9 @@
       <c r="C52" s="2" t="s">
         <v>107</v>
       </c>
+      <c r="E52" s="2">
+        <v>52</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
@@ -2533,6 +2675,9 @@
       <c r="C53" s="2" t="s">
         <v>109</v>
       </c>
+      <c r="E53" s="2">
+        <v>53</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
@@ -2544,6 +2689,9 @@
       <c r="C54" s="2" t="s">
         <v>111</v>
       </c>
+      <c r="E54" s="2">
+        <v>54</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
@@ -2555,6 +2703,9 @@
       <c r="C55" s="2" t="s">
         <v>113</v>
       </c>
+      <c r="E55" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
@@ -2566,6 +2717,9 @@
       <c r="C56" s="2" t="s">
         <v>115</v>
       </c>
+      <c r="E56" s="2">
+        <v>56</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
@@ -2577,6 +2731,9 @@
       <c r="C57" s="2" t="s">
         <v>117</v>
       </c>
+      <c r="E57" s="2">
+        <v>57</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
@@ -2588,6 +2745,9 @@
       <c r="C58" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="E58" s="2">
+        <v>58</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
@@ -2599,6 +2759,9 @@
       <c r="C59" s="2" t="s">
         <v>121</v>
       </c>
+      <c r="E59" s="2">
+        <v>59</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
@@ -2610,6 +2773,9 @@
       <c r="C60" s="2" t="s">
         <v>123</v>
       </c>
+      <c r="E60" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
@@ -2621,6 +2787,9 @@
       <c r="C61" s="2" t="s">
         <v>125</v>
       </c>
+      <c r="E61" s="2">
+        <v>61</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
@@ -2632,6 +2801,9 @@
       <c r="C62" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="E62" s="2">
+        <v>62</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
@@ -2643,6 +2815,9 @@
       <c r="C63" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="E63" s="2">
+        <v>63</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
@@ -2654,6 +2829,9 @@
       <c r="C64" s="2" t="s">
         <v>131</v>
       </c>
+      <c r="E64" s="2">
+        <v>64</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
@@ -2665,6 +2843,9 @@
       <c r="C65" s="2" t="s">
         <v>133</v>
       </c>
+      <c r="E65" s="2">
+        <v>65</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
@@ -2676,6 +2857,9 @@
       <c r="C66" s="2" t="s">
         <v>135</v>
       </c>
+      <c r="E66" s="2">
+        <v>66</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
@@ -2687,6 +2871,9 @@
       <c r="C67" s="2" t="s">
         <v>137</v>
       </c>
+      <c r="E67" s="2">
+        <v>67</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
@@ -2698,6 +2885,9 @@
       <c r="C68" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="E68" s="2">
+        <v>68</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
@@ -2709,6 +2899,9 @@
       <c r="C69" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="E69" s="2">
+        <v>69</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
@@ -2720,6 +2913,9 @@
       <c r="C70" s="2" t="s">
         <v>143</v>
       </c>
+      <c r="E70" s="2">
+        <v>70</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
@@ -2731,6 +2927,9 @@
       <c r="C71" s="2" t="s">
         <v>145</v>
       </c>
+      <c r="E71" s="2">
+        <v>71</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
@@ -2742,6 +2941,9 @@
       <c r="C72" s="2" t="s">
         <v>147</v>
       </c>
+      <c r="E72" s="2">
+        <v>72</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
@@ -2753,6 +2955,9 @@
       <c r="C73" s="2" t="s">
         <v>149</v>
       </c>
+      <c r="E73" s="2">
+        <v>73</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
@@ -2764,6 +2969,9 @@
       <c r="C74" s="2" t="s">
         <v>151</v>
       </c>
+      <c r="E74" s="2">
+        <v>74</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
@@ -2775,6 +2983,9 @@
       <c r="C75" s="2" t="s">
         <v>153</v>
       </c>
+      <c r="E75" s="2">
+        <v>75</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
@@ -2786,6 +2997,9 @@
       <c r="C76" s="2" t="s">
         <v>155</v>
       </c>
+      <c r="E76" s="2">
+        <v>76</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
@@ -2797,6 +3011,9 @@
       <c r="C77" s="2" t="s">
         <v>157</v>
       </c>
+      <c r="E77" s="2">
+        <v>77</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
@@ -2808,6 +3025,9 @@
       <c r="C78" s="2" t="s">
         <v>159</v>
       </c>
+      <c r="E78" s="2">
+        <v>78</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
@@ -2819,6 +3039,9 @@
       <c r="C79" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="E79" s="2">
+        <v>79</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
@@ -2830,6 +3053,9 @@
       <c r="C80" s="2" t="s">
         <v>161</v>
       </c>
+      <c r="E80" s="2">
+        <v>80</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
@@ -2841,6 +3067,9 @@
       <c r="C81" s="2" t="s">
         <v>164</v>
       </c>
+      <c r="E81" s="2">
+        <v>81</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
@@ -2852,6 +3081,9 @@
       <c r="C82" s="2" t="s">
         <v>166</v>
       </c>
+      <c r="E82" s="2">
+        <v>82</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
@@ -2863,6 +3095,9 @@
       <c r="C83" s="2" t="s">
         <v>168</v>
       </c>
+      <c r="E83" s="2">
+        <v>83</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
@@ -2874,6 +3109,9 @@
       <c r="C84" s="2" t="s">
         <v>170</v>
       </c>
+      <c r="E84" s="2">
+        <v>84</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
@@ -2885,6 +3123,9 @@
       <c r="C85" s="2" t="s">
         <v>172</v>
       </c>
+      <c r="E85" s="2">
+        <v>85</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
@@ -2896,6 +3137,9 @@
       <c r="C86" s="2" t="s">
         <v>174</v>
       </c>
+      <c r="E86" s="2">
+        <v>86</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
@@ -2907,6 +3151,9 @@
       <c r="C87" s="2" t="s">
         <v>139</v>
       </c>
+      <c r="E87" s="2">
+        <v>87</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
@@ -2918,6 +3165,9 @@
       <c r="C88" s="2" t="s">
         <v>177</v>
       </c>
+      <c r="E88" s="2">
+        <v>88</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
@@ -2929,6 +3179,9 @@
       <c r="C89" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="E89" s="2">
+        <v>89</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
@@ -2940,6 +3193,9 @@
       <c r="C90" s="2" t="s">
         <v>181</v>
       </c>
+      <c r="E90" s="2">
+        <v>90</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
@@ -2951,6 +3207,9 @@
       <c r="C91" s="2" t="s">
         <v>183</v>
       </c>
+      <c r="E91" s="2">
+        <v>91</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
@@ -2962,6 +3221,9 @@
       <c r="C92" s="2" t="s">
         <v>185</v>
       </c>
+      <c r="E92" s="2">
+        <v>92</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
@@ -2973,6 +3235,9 @@
       <c r="C93" s="2" t="s">
         <v>187</v>
       </c>
+      <c r="E93" s="2">
+        <v>93</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
@@ -2984,6 +3249,9 @@
       <c r="C94" s="2" t="s">
         <v>189</v>
       </c>
+      <c r="E94" s="2">
+        <v>94</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
@@ -2995,6 +3263,9 @@
       <c r="C95" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="E95" s="2">
+        <v>95</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
@@ -3006,6 +3277,9 @@
       <c r="C96" s="2" t="s">
         <v>193</v>
       </c>
+      <c r="E96" s="2">
+        <v>96</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
@@ -3017,6 +3291,9 @@
       <c r="C97" s="2" t="s">
         <v>195</v>
       </c>
+      <c r="E97" s="2">
+        <v>97</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
@@ -3028,6 +3305,9 @@
       <c r="C98" s="2" t="s">
         <v>197</v>
       </c>
+      <c r="E98" s="2">
+        <v>98</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
@@ -3039,6 +3319,9 @@
       <c r="C99" s="2" t="s">
         <v>199</v>
       </c>
+      <c r="E99" s="2">
+        <v>99</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
@@ -3050,6 +3333,9 @@
       <c r="C100" s="2" t="s">
         <v>201</v>
       </c>
+      <c r="E100" s="2">
+        <v>100</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
@@ -3061,16 +3347,22 @@
       <c r="C101" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="102" s="3" customFormat="1">
-      <c r="A102" s="3" t="s">
+      <c r="E101" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
         <v>204</v>
       </c>
       <c r="B102" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="2" t="s">
         <v>206</v>
+      </c>
+      <c r="E102" s="2">
+        <v>102</v>
       </c>
     </row>
     <row r="103">
@@ -3083,6 +3375,9 @@
       <c r="C103" s="2" t="s">
         <v>208</v>
       </c>
+      <c r="E103" s="2">
+        <v>103</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
@@ -3094,6 +3389,9 @@
       <c r="C104" s="2" t="s">
         <v>210</v>
       </c>
+      <c r="E104" s="2">
+        <v>104</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
@@ -3105,6 +3403,9 @@
       <c r="C105" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="E105" s="2">
+        <v>105</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
@@ -3116,6 +3417,9 @@
       <c r="C106" s="2" t="s">
         <v>214</v>
       </c>
+      <c r="E106" s="2">
+        <v>106</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
@@ -3127,6 +3431,9 @@
       <c r="C107" s="2" t="s">
         <v>216</v>
       </c>
+      <c r="E107" s="2">
+        <v>107</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
@@ -3138,6 +3445,9 @@
       <c r="C108" s="2" t="s">
         <v>218</v>
       </c>
+      <c r="E108" s="2">
+        <v>108</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
@@ -3149,6 +3459,9 @@
       <c r="C109" s="2" t="s">
         <v>220</v>
       </c>
+      <c r="E109" s="2">
+        <v>109</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
@@ -3160,6 +3473,9 @@
       <c r="C110" s="2" t="s">
         <v>222</v>
       </c>
+      <c r="E110" s="2">
+        <v>110</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
@@ -3171,6 +3487,9 @@
       <c r="C111" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="E111" s="2">
+        <v>111</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
@@ -3182,6 +3501,9 @@
       <c r="C112" s="2" t="s">
         <v>225</v>
       </c>
+      <c r="E112" s="2">
+        <v>112</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
@@ -3193,6 +3515,9 @@
       <c r="C113" s="2" t="s">
         <v>227</v>
       </c>
+      <c r="E113" s="2">
+        <v>113</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
@@ -3204,6 +3529,9 @@
       <c r="C114" s="2" t="s">
         <v>229</v>
       </c>
+      <c r="E114" s="2">
+        <v>114</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
@@ -3215,6 +3543,9 @@
       <c r="C115" s="2" t="s">
         <v>231</v>
       </c>
+      <c r="E115" s="2">
+        <v>115</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
@@ -3226,6 +3557,9 @@
       <c r="C116" s="2" t="s">
         <v>233</v>
       </c>
+      <c r="E116" s="2">
+        <v>116</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
@@ -3237,6 +3571,9 @@
       <c r="C117" s="2" t="s">
         <v>235</v>
       </c>
+      <c r="E117" s="2">
+        <v>117</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
@@ -3248,6 +3585,9 @@
       <c r="C118" s="2" t="s">
         <v>237</v>
       </c>
+      <c r="E118" s="2">
+        <v>118</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
@@ -3259,6 +3599,9 @@
       <c r="C119" s="2" t="s">
         <v>239</v>
       </c>
+      <c r="E119" s="2">
+        <v>119</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
@@ -3270,6 +3613,9 @@
       <c r="C120" s="2" t="s">
         <v>241</v>
       </c>
+      <c r="E120" s="2">
+        <v>120</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
@@ -3281,6 +3627,9 @@
       <c r="C121" s="2" t="s">
         <v>243</v>
       </c>
+      <c r="E121" s="2">
+        <v>121</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
@@ -3292,6 +3641,9 @@
       <c r="C122" s="2" t="s">
         <v>245</v>
       </c>
+      <c r="E122" s="2">
+        <v>122</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
@@ -3303,6 +3655,9 @@
       <c r="C123" s="2" t="s">
         <v>247</v>
       </c>
+      <c r="E123" s="2">
+        <v>123</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
@@ -3314,6 +3669,9 @@
       <c r="C124" s="2" t="s">
         <v>249</v>
       </c>
+      <c r="E124" s="2">
+        <v>124</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
@@ -3325,6 +3683,9 @@
       <c r="C125" s="2" t="s">
         <v>251</v>
       </c>
+      <c r="E125" s="2">
+        <v>125</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
@@ -3336,6 +3697,9 @@
       <c r="C126" s="2" t="s">
         <v>253</v>
       </c>
+      <c r="E126" s="2">
+        <v>126</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
@@ -3347,6 +3711,9 @@
       <c r="C127" s="2" t="s">
         <v>255</v>
       </c>
+      <c r="E127" s="2">
+        <v>127</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
@@ -3358,16 +3725,22 @@
       <c r="C128" s="2" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="129" s="3" customFormat="1">
-      <c r="A129" s="3" t="s">
+      <c r="E128" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="s">
         <v>258</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="C129" s="2" t="s">
         <v>260</v>
+      </c>
+      <c r="E129" s="2">
+        <v>129</v>
       </c>
     </row>
     <row r="130">
@@ -3380,6 +3753,9 @@
       <c r="C130" s="2" t="s">
         <v>262</v>
       </c>
+      <c r="E130" s="2">
+        <v>130</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
@@ -3391,6 +3767,9 @@
       <c r="C131" s="2" t="s">
         <v>264</v>
       </c>
+      <c r="E131" s="2">
+        <v>131</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
@@ -3402,6 +3781,9 @@
       <c r="C132" s="2" t="s">
         <v>266</v>
       </c>
+      <c r="E132" s="2">
+        <v>132</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
@@ -3413,6 +3795,9 @@
       <c r="C133" s="2" t="s">
         <v>268</v>
       </c>
+      <c r="E133" s="2">
+        <v>133</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
@@ -3424,6 +3809,9 @@
       <c r="C134" s="2" t="s">
         <v>270</v>
       </c>
+      <c r="E134" s="2">
+        <v>134</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
@@ -3435,6 +3823,9 @@
       <c r="C135" s="2" t="s">
         <v>272</v>
       </c>
+      <c r="E135" s="2">
+        <v>135</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
@@ -3446,6 +3837,9 @@
       <c r="C136" s="2" t="s">
         <v>274</v>
       </c>
+      <c r="E136" s="2">
+        <v>136</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
@@ -3457,6 +3851,9 @@
       <c r="C137" s="2" t="s">
         <v>276</v>
       </c>
+      <c r="E137" s="2">
+        <v>137</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
@@ -3468,6 +3865,9 @@
       <c r="C138" s="2" t="s">
         <v>278</v>
       </c>
+      <c r="E138" s="2">
+        <v>138</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
@@ -3479,6 +3879,9 @@
       <c r="C139" s="2" t="s">
         <v>280</v>
       </c>
+      <c r="E139" s="2">
+        <v>139</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
@@ -3490,6 +3893,9 @@
       <c r="C140" s="2" t="s">
         <v>282</v>
       </c>
+      <c r="E140" s="2">
+        <v>140</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
@@ -3501,6 +3907,9 @@
       <c r="C141" s="2" t="s">
         <v>284</v>
       </c>
+      <c r="E141" s="2">
+        <v>141</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
@@ -3512,6 +3921,9 @@
       <c r="C142" s="2" t="s">
         <v>286</v>
       </c>
+      <c r="E142" s="2">
+        <v>142</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
@@ -3523,6 +3935,9 @@
       <c r="C143" s="2" t="s">
         <v>56</v>
       </c>
+      <c r="E143" s="2">
+        <v>143</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
@@ -3534,6 +3949,9 @@
       <c r="C144" s="2" t="s">
         <v>289</v>
       </c>
+      <c r="E144" s="2">
+        <v>144</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
@@ -3545,6 +3963,9 @@
       <c r="C145" s="2" t="s">
         <v>291</v>
       </c>
+      <c r="E145" s="2">
+        <v>145</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
@@ -3556,6 +3977,9 @@
       <c r="C146" s="2" t="s">
         <v>293</v>
       </c>
+      <c r="E146" s="2">
+        <v>146</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
@@ -3567,6 +3991,9 @@
       <c r="C147" s="2" t="s">
         <v>295</v>
       </c>
+      <c r="E147" s="2">
+        <v>147</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
@@ -3578,6 +4005,9 @@
       <c r="C148" s="2" t="s">
         <v>297</v>
       </c>
+      <c r="E148" s="2">
+        <v>148</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
@@ -3589,6 +4019,9 @@
       <c r="C149" s="2" t="s">
         <v>299</v>
       </c>
+      <c r="E149" s="2">
+        <v>149</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
@@ -3600,6 +4033,9 @@
       <c r="C150" s="2" t="s">
         <v>301</v>
       </c>
+      <c r="E150" s="2">
+        <v>150</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
@@ -3611,6 +4047,9 @@
       <c r="C151" s="2" t="s">
         <v>303</v>
       </c>
+      <c r="E151" s="2">
+        <v>151</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
@@ -3622,6 +4061,9 @@
       <c r="C152" s="2" t="s">
         <v>305</v>
       </c>
+      <c r="E152" s="2">
+        <v>152</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
@@ -3633,6 +4075,9 @@
       <c r="C153" s="2" t="s">
         <v>307</v>
       </c>
+      <c r="E153" s="2">
+        <v>153</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
@@ -3644,6 +4089,9 @@
       <c r="C154" s="2" t="s">
         <v>309</v>
       </c>
+      <c r="E154" s="2">
+        <v>154</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
@@ -3655,6 +4103,9 @@
       <c r="C155" s="2" t="s">
         <v>311</v>
       </c>
+      <c r="E155" s="2">
+        <v>155</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
@@ -3666,6 +4117,9 @@
       <c r="C156" s="2" t="s">
         <v>313</v>
       </c>
+      <c r="E156" s="2">
+        <v>156</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
@@ -3677,6 +4131,9 @@
       <c r="C157" s="2" t="s">
         <v>315</v>
       </c>
+      <c r="E157" s="2">
+        <v>157</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
@@ -3688,6 +4145,9 @@
       <c r="C158" s="2" t="s">
         <v>317</v>
       </c>
+      <c r="E158" s="2">
+        <v>158</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
@@ -3699,6 +4159,9 @@
       <c r="C159" s="2" t="s">
         <v>319</v>
       </c>
+      <c r="E159" s="2">
+        <v>159</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
@@ -3710,6 +4173,9 @@
       <c r="C160" s="2" t="s">
         <v>321</v>
       </c>
+      <c r="E160" s="2">
+        <v>160</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
@@ -3721,6 +4187,9 @@
       <c r="C161" s="2" t="s">
         <v>323</v>
       </c>
+      <c r="E161" s="2">
+        <v>161</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
@@ -3732,6 +4201,9 @@
       <c r="C162" s="2" t="s">
         <v>325</v>
       </c>
+      <c r="E162" s="2">
+        <v>162</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
@@ -3743,6 +4215,9 @@
       <c r="C163" s="2" t="s">
         <v>327</v>
       </c>
+      <c r="E163" s="2">
+        <v>163</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
@@ -3754,6 +4229,9 @@
       <c r="C164" s="2" t="s">
         <v>329</v>
       </c>
+      <c r="E164" s="2">
+        <v>164</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
@@ -3765,6 +4243,9 @@
       <c r="C165" s="2" t="s">
         <v>331</v>
       </c>
+      <c r="E165" s="2">
+        <v>165</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
@@ -3776,6 +4257,9 @@
       <c r="C166" s="2" t="s">
         <v>333</v>
       </c>
+      <c r="E166" s="2">
+        <v>166</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
@@ -3787,6 +4271,9 @@
       <c r="C167" s="2" t="s">
         <v>335</v>
       </c>
+      <c r="E167" s="2">
+        <v>167</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
@@ -3798,6 +4285,9 @@
       <c r="C168" s="2" t="s">
         <v>337</v>
       </c>
+      <c r="E168" s="2">
+        <v>168</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
@@ -3809,6 +4299,9 @@
       <c r="C169" s="2" t="s">
         <v>339</v>
       </c>
+      <c r="E169" s="2">
+        <v>169</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
@@ -3820,6 +4313,9 @@
       <c r="C170" s="2" t="s">
         <v>341</v>
       </c>
+      <c r="E170" s="2">
+        <v>170</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
@@ -3831,6 +4327,9 @@
       <c r="C171" s="2" t="s">
         <v>343</v>
       </c>
+      <c r="E171" s="2">
+        <v>171</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
@@ -3842,6 +4341,9 @@
       <c r="C172" s="2" t="s">
         <v>345</v>
       </c>
+      <c r="E172" s="2">
+        <v>172</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
@@ -3853,6 +4355,9 @@
       <c r="C173" s="2" t="s">
         <v>347</v>
       </c>
+      <c r="E173" s="2">
+        <v>173</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
@@ -3864,6 +4369,9 @@
       <c r="C174" s="2" t="s">
         <v>349</v>
       </c>
+      <c r="E174" s="2">
+        <v>174</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
@@ -3875,6 +4383,9 @@
       <c r="C175" s="2" t="s">
         <v>351</v>
       </c>
+      <c r="E175" s="2">
+        <v>175</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
@@ -3886,6 +4397,9 @@
       <c r="C176" s="2" t="s">
         <v>353</v>
       </c>
+      <c r="E176" s="2">
+        <v>176</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
@@ -3897,6 +4411,9 @@
       <c r="C177" s="2" t="s">
         <v>355</v>
       </c>
+      <c r="E177" s="2">
+        <v>177</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
@@ -3908,6 +4425,9 @@
       <c r="C178" s="2" t="s">
         <v>357</v>
       </c>
+      <c r="E178" s="2">
+        <v>178</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
@@ -3919,6 +4439,9 @@
       <c r="C179" s="2" t="s">
         <v>359</v>
       </c>
+      <c r="E179" s="2">
+        <v>179</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
@@ -3930,6 +4453,9 @@
       <c r="C180" s="2" t="s">
         <v>361</v>
       </c>
+      <c r="E180" s="2">
+        <v>180</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
@@ -3941,6 +4467,9 @@
       <c r="C181" s="2" t="s">
         <v>363</v>
       </c>
+      <c r="E181" s="2">
+        <v>181</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
@@ -3952,6 +4481,9 @@
       <c r="C182" s="2" t="s">
         <v>365</v>
       </c>
+      <c r="E182" s="2">
+        <v>182</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
@@ -3963,6 +4495,9 @@
       <c r="C183" s="2" t="s">
         <v>367</v>
       </c>
+      <c r="E183" s="2">
+        <v>183</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
@@ -3974,6 +4509,9 @@
       <c r="C184" s="2" t="s">
         <v>369</v>
       </c>
+      <c r="E184" s="2">
+        <v>184</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
@@ -3985,6 +4523,9 @@
       <c r="C185" s="2" t="s">
         <v>371</v>
       </c>
+      <c r="E185" s="2">
+        <v>185</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
@@ -3996,6 +4537,9 @@
       <c r="C186" s="2" t="s">
         <v>373</v>
       </c>
+      <c r="E186" s="2">
+        <v>186</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
@@ -4007,6 +4551,9 @@
       <c r="C187" s="2" t="s">
         <v>375</v>
       </c>
+      <c r="E187" s="2">
+        <v>187</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
@@ -4018,27 +4565,36 @@
       <c r="C188" s="2" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="189" s="3" customFormat="1">
-      <c r="A189" s="3" t="s">
+      <c r="E188" s="2">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="s">
         <v>378</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="2" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="190" s="3" customFormat="1">
-      <c r="A190" s="3" t="s">
+      <c r="E189" s="2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="s">
         <v>381</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="2" t="s">
         <v>383</v>
+      </c>
+      <c r="E190" s="2">
+        <v>190</v>
       </c>
     </row>
     <row r="191">
@@ -4051,6 +4607,9 @@
       <c r="C191" s="2" t="s">
         <v>385</v>
       </c>
+      <c r="E191" s="2">
+        <v>191</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
@@ -4062,6 +4621,9 @@
       <c r="C192" s="2" t="s">
         <v>387</v>
       </c>
+      <c r="E192" s="2">
+        <v>192</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
@@ -4073,6 +4635,9 @@
       <c r="C193" s="2" t="s">
         <v>389</v>
       </c>
+      <c r="E193" s="2">
+        <v>193</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
@@ -4084,6 +4649,9 @@
       <c r="C194" s="2" t="s">
         <v>391</v>
       </c>
+      <c r="E194" s="2">
+        <v>194</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
@@ -4095,6 +4663,9 @@
       <c r="C195" s="2" t="s">
         <v>393</v>
       </c>
+      <c r="E195" s="2">
+        <v>195</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
@@ -4106,6 +4677,9 @@
       <c r="C196" s="2" t="s">
         <v>395</v>
       </c>
+      <c r="E196" s="2">
+        <v>196</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
@@ -4117,6 +4691,9 @@
       <c r="C197" s="2" t="s">
         <v>397</v>
       </c>
+      <c r="E197" s="2">
+        <v>197</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
@@ -4128,6 +4705,9 @@
       <c r="C198" s="2" t="s">
         <v>399</v>
       </c>
+      <c r="E198" s="2">
+        <v>198</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
@@ -4139,6 +4719,9 @@
       <c r="C199" s="2" t="s">
         <v>401</v>
       </c>
+      <c r="E199" s="2">
+        <v>199</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
@@ -4150,6 +4733,9 @@
       <c r="C200" s="2" t="s">
         <v>403</v>
       </c>
+      <c r="E200" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
@@ -4161,6 +4747,9 @@
       <c r="C201" s="2" t="s">
         <v>405</v>
       </c>
+      <c r="E201" s="2">
+        <v>201</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
@@ -4172,6 +4761,9 @@
       <c r="C202" s="2" t="s">
         <v>407</v>
       </c>
+      <c r="E202" s="2">
+        <v>202</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
@@ -4183,6 +4775,9 @@
       <c r="C203" s="2" t="s">
         <v>409</v>
       </c>
+      <c r="E203" s="2">
+        <v>203</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
@@ -4194,6 +4789,9 @@
       <c r="C204" s="2" t="s">
         <v>411</v>
       </c>
+      <c r="E204" s="2">
+        <v>204</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
@@ -4205,6 +4803,9 @@
       <c r="C205" s="2" t="s">
         <v>413</v>
       </c>
+      <c r="E205" s="2">
+        <v>205</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
@@ -4216,6 +4817,9 @@
       <c r="C206" s="2" t="s">
         <v>415</v>
       </c>
+      <c r="E206" s="2">
+        <v>206</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
@@ -4227,6 +4831,9 @@
       <c r="C207" s="2" t="s">
         <v>417</v>
       </c>
+      <c r="E207" s="2">
+        <v>207</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
@@ -4238,6 +4845,9 @@
       <c r="C208" s="2" t="s">
         <v>419</v>
       </c>
+      <c r="E208" s="2">
+        <v>208</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
@@ -4249,6 +4859,9 @@
       <c r="C209" s="2" t="s">
         <v>421</v>
       </c>
+      <c r="E209" s="2">
+        <v>209</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
@@ -4260,6 +4873,9 @@
       <c r="C210" s="2" t="s">
         <v>421</v>
       </c>
+      <c r="E210" s="2">
+        <v>210</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
@@ -4271,6 +4887,9 @@
       <c r="C211" s="2" t="s">
         <v>424</v>
       </c>
+      <c r="E211" s="2">
+        <v>211</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
@@ -4282,6 +4901,9 @@
       <c r="C212" s="2" t="s">
         <v>424</v>
       </c>
+      <c r="E212" s="2">
+        <v>212</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
@@ -4293,6 +4915,9 @@
       <c r="C213" s="2" t="s">
         <v>427</v>
       </c>
+      <c r="E213" s="2">
+        <v>213</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
@@ -4304,6 +4929,9 @@
       <c r="C214" s="2" t="s">
         <v>429</v>
       </c>
+      <c r="E214" s="2">
+        <v>214</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
@@ -4315,6 +4943,9 @@
       <c r="C215" s="2" t="s">
         <v>431</v>
       </c>
+      <c r="E215" s="2">
+        <v>215</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
@@ -4326,6 +4957,9 @@
       <c r="C216" s="2" t="s">
         <v>433</v>
       </c>
+      <c r="E216" s="2">
+        <v>216</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
@@ -4337,6 +4971,9 @@
       <c r="C217" s="2" t="s">
         <v>435</v>
       </c>
+      <c r="E217" s="2">
+        <v>217</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
@@ -4348,6 +4985,9 @@
       <c r="C218" s="2" t="s">
         <v>437</v>
       </c>
+      <c r="E218" s="2">
+        <v>218</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
@@ -4359,6 +4999,9 @@
       <c r="C219" s="2" t="s">
         <v>439</v>
       </c>
+      <c r="E219" s="2">
+        <v>219</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
@@ -4370,6 +5013,9 @@
       <c r="C220" s="2" t="s">
         <v>441</v>
       </c>
+      <c r="E220" s="2">
+        <v>220</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
@@ -4381,6 +5027,9 @@
       <c r="C221" s="2" t="s">
         <v>443</v>
       </c>
+      <c r="E221" s="2">
+        <v>221</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
@@ -4392,6 +5041,9 @@
       <c r="C222" s="2" t="s">
         <v>445</v>
       </c>
+      <c r="E222" s="2">
+        <v>222</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
@@ -4403,6 +5055,9 @@
       <c r="C223" s="2" t="s">
         <v>447</v>
       </c>
+      <c r="E223" s="2">
+        <v>223</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
@@ -4414,120 +5069,153 @@
       <c r="C224" s="2" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="s">
+      <c r="E224" s="2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="225" s="3" customFormat="1">
+      <c r="A225" s="3" t="s">
         <v>450</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="C225" s="2" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="2" t="s">
+      <c r="C225" s="3" t="s">
         <v>452</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="E225" s="3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="226" s="3" customFormat="1">
+      <c r="A226" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C226" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="2" t="s">
+      <c r="B226" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="C226" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E226" s="3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="227" s="3" customFormat="1">
+      <c r="A227" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="C227" s="2" t="s">
-        <v>455</v>
+      <c r="B227" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="E227" s="3">
+        <v>227</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>457</v>
+        <v>459</v>
+      </c>
+      <c r="E228" s="2">
+        <v>228</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>459</v>
+        <v>461</v>
+      </c>
+      <c r="E229" s="2">
+        <v>229</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>461</v>
+        <v>463</v>
+      </c>
+      <c r="E230" s="2">
+        <v>230</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>463</v>
+        <v>465</v>
+      </c>
+      <c r="E231" s="2">
+        <v>231</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>465</v>
+        <v>467</v>
+      </c>
+      <c r="E232" s="2">
+        <v>232</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>467</v>
+        <v>469</v>
+      </c>
+      <c r="E233" s="2">
+        <v>233</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>469</v>
+        <v>471</v>
+      </c>
+      <c r="E234" s="2">
+        <v>234</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B235" s="2" t="s">
         <v>445</v>
@@ -4535,21 +5223,27 @@
       <c r="C235" s="2" t="s">
         <v>445</v>
       </c>
+      <c r="E235" s="2">
+        <v>235</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>472</v>
+        <v>474</v>
+      </c>
+      <c r="E236" s="2">
+        <v>236</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="B237" s="2" t="s">
         <v>449</v>
@@ -4557,164 +5251,209 @@
       <c r="C237" s="2" t="s">
         <v>449</v>
       </c>
+      <c r="E237" s="2">
+        <v>237</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>475</v>
+        <v>477</v>
+      </c>
+      <c r="E238" s="2">
+        <v>238</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
+      </c>
+      <c r="E239" s="2">
+        <v>239</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>478</v>
+        <v>480</v>
+      </c>
+      <c r="E240" s="2">
+        <v>240</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>480</v>
+        <v>482</v>
+      </c>
+      <c r="E241" s="2">
+        <v>241</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>482</v>
+        <v>484</v>
+      </c>
+      <c r="E242" s="2">
+        <v>242</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>484</v>
+        <v>486</v>
+      </c>
+      <c r="E243" s="2">
+        <v>243</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>486</v>
+        <v>488</v>
+      </c>
+      <c r="E244" s="2">
+        <v>244</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>488</v>
+        <v>490</v>
+      </c>
+      <c r="E245" s="2">
+        <v>245</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="247" s="3" customFormat="1">
-      <c r="A247" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
+      </c>
+      <c r="E246" s="2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="s">
+        <v>493</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>492</v>
-      </c>
-      <c r="C247" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="E247" s="2">
+        <v>247</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>495</v>
+        <v>497</v>
+      </c>
+      <c r="E248" s="2">
+        <v>248</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>497</v>
+        <v>499</v>
+      </c>
+      <c r="E249" s="2">
+        <v>249</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
+      </c>
+      <c r="E250" s="2">
+        <v>250</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
+      </c>
+      <c r="E251" s="2">
+        <v>251</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B252" s="2" t="s">
         <v>445</v>
@@ -4722,32 +5461,41 @@
       <c r="C252" s="2" t="s">
         <v>445</v>
       </c>
+      <c r="E252" s="2">
+        <v>252</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
+      </c>
+      <c r="E253" s="2">
+        <v>253</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
+      </c>
+      <c r="E254" s="2">
+        <v>254</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B255" s="2" t="s">
         <v>355</v>
@@ -4755,32 +5503,41 @@
       <c r="C255" s="2" t="s">
         <v>355</v>
       </c>
+      <c r="E255" s="2">
+        <v>255</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
+      </c>
+      <c r="E256" s="2">
+        <v>256</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
+      </c>
+      <c r="E257" s="2">
+        <v>257</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B258" s="2" t="s">
         <v>179</v>
@@ -4788,21 +5545,27 @@
       <c r="C258" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="E258" s="2">
+        <v>258</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="B259" s="2" t="s">
-        <v>511</v>
-      </c>
       <c r="C259" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
+      </c>
+      <c r="E259" s="2">
+        <v>259</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B260" s="2" t="s">
         <v>1</v>
@@ -4810,21 +5573,27 @@
       <c r="C260" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E260" s="2">
+        <v>260</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
+      </c>
+      <c r="E261" s="2">
+        <v>261</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B262" s="2" t="s">
         <v>1</v>
@@ -4832,21 +5601,27 @@
       <c r="C262" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="E262" s="2">
+        <v>262</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
+      </c>
+      <c r="E263" s="2">
+        <v>263</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B264" s="2" t="s">
         <v>64</v>
@@ -4854,21 +5629,27 @@
       <c r="C264" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="E264" s="2">
+        <v>264</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
+      </c>
+      <c r="E265" s="2">
+        <v>265</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B266" s="2" t="s">
         <v>64</v>
@@ -4876,21 +5657,27 @@
       <c r="C266" s="2" t="s">
         <v>64</v>
       </c>
+      <c r="E266" s="2">
+        <v>266</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
+      </c>
+      <c r="E267" s="2">
+        <v>267</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B268" s="2" t="s">
         <v>179</v>
@@ -4898,9 +5685,13 @@
       <c r="C268" s="2" t="s">
         <v>179</v>
       </c>
+      <c r="E268" s="2">
+        <v>268</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/CustomLocalization/Localization/RogueTech/RU/Jihad Flashpoint/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Jihad Flashpoint/LocalizationDef.xlsx
@@ -1625,7 +1625,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0" applyProtection="1"/>
@@ -1926,15 +1927,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A249" workbookViewId="0">
-      <selection activeCell="B212" sqref="B212"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="C270" sqref="C270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="75.28515625" customWidth="1" style="2"/>
-    <col min="4" max="4" width="9.140625" customWidth="1" style="2"/>
-    <col min="5" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
+    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1944,7 +1945,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="2">
@@ -1958,7 +1959,7 @@
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="2">
@@ -1972,7 +1973,7 @@
       <c r="B3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="2">
@@ -1986,7 +1987,7 @@
       <c r="B4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E4" s="2">
@@ -2000,7 +2001,7 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="2">
@@ -2014,7 +2015,7 @@
       <c r="B6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="2">
@@ -2028,7 +2029,7 @@
       <c r="B7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E7" s="2">
@@ -2042,7 +2043,7 @@
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="4" t="s">
         <v>15</v>
       </c>
       <c r="E8" s="2">
@@ -2056,7 +2057,7 @@
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="2">
@@ -2070,7 +2071,7 @@
       <c r="B10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="2">
@@ -2084,7 +2085,7 @@
       <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="2">
@@ -2098,7 +2099,7 @@
       <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>25</v>
       </c>
       <c r="E12" s="2">
@@ -2112,7 +2113,7 @@
       <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="2">
@@ -2126,7 +2127,7 @@
       <c r="B14" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E14" s="2">
@@ -2140,7 +2141,7 @@
       <c r="B15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="2">
@@ -2154,7 +2155,7 @@
       <c r="B16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>34</v>
       </c>
       <c r="E16" s="2">
@@ -2168,7 +2169,7 @@
       <c r="B17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="2">
@@ -2182,7 +2183,7 @@
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E18" s="2">
@@ -2196,7 +2197,7 @@
       <c r="B19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="2">
@@ -2210,7 +2211,7 @@
       <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E20" s="2">
@@ -2224,7 +2225,7 @@
       <c r="B21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>44</v>
       </c>
       <c r="E21" s="2">
@@ -2238,7 +2239,7 @@
       <c r="B22" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>46</v>
       </c>
       <c r="E22" s="2">
@@ -2252,7 +2253,7 @@
       <c r="B23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E23" s="2">
@@ -2266,7 +2267,7 @@
       <c r="B24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="2">
@@ -2280,7 +2281,7 @@
       <c r="B25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>52</v>
       </c>
       <c r="E25" s="2">
@@ -2294,7 +2295,7 @@
       <c r="B26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>54</v>
       </c>
       <c r="E26" s="2">
@@ -2308,7 +2309,7 @@
       <c r="B27" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E27" s="2">
@@ -2322,7 +2323,7 @@
       <c r="B28" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E28" s="2">
@@ -2336,7 +2337,7 @@
       <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>60</v>
       </c>
       <c r="E29" s="2">
@@ -2350,7 +2351,7 @@
       <c r="B30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="4" t="s">
         <v>62</v>
       </c>
       <c r="E30" s="2">
@@ -2364,7 +2365,7 @@
       <c r="B31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E31" s="2">
@@ -2378,7 +2379,7 @@
       <c r="B32" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>66</v>
       </c>
       <c r="E32" s="2">
@@ -2392,7 +2393,7 @@
       <c r="B33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>68</v>
       </c>
       <c r="E33" s="2">
@@ -2406,7 +2407,7 @@
       <c r="B34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E34" s="2">
@@ -2420,7 +2421,7 @@
       <c r="B35" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="4" t="s">
         <v>72</v>
       </c>
       <c r="E35" s="2">
@@ -2434,7 +2435,7 @@
       <c r="B36" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="4" t="s">
         <v>74</v>
       </c>
       <c r="E36" s="2">
@@ -2448,7 +2449,7 @@
       <c r="B37" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E37" s="2">
@@ -2462,7 +2463,7 @@
       <c r="B38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="4" t="s">
         <v>78</v>
       </c>
       <c r="E38" s="2">
@@ -2476,7 +2477,7 @@
       <c r="B39" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>80</v>
       </c>
       <c r="E39" s="2">
@@ -2490,7 +2491,7 @@
       <c r="B40" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E40" s="2">
@@ -2504,7 +2505,7 @@
       <c r="B41" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="4" t="s">
         <v>84</v>
       </c>
       <c r="E41" s="2">
@@ -2518,7 +2519,7 @@
       <c r="B42" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="4" t="s">
         <v>87</v>
       </c>
       <c r="E42" s="2">
@@ -2532,7 +2533,7 @@
       <c r="B43" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" s="4" t="s">
         <v>89</v>
       </c>
       <c r="E43" s="2">
@@ -2546,7 +2547,7 @@
       <c r="B44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E44" s="2">
@@ -2560,7 +2561,7 @@
       <c r="B45" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" s="4" t="s">
         <v>93</v>
       </c>
       <c r="E45" s="2">
@@ -2574,7 +2575,7 @@
       <c r="B46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="4" t="s">
         <v>95</v>
       </c>
       <c r="E46" s="2">
@@ -2588,7 +2589,7 @@
       <c r="B47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" s="4" t="s">
         <v>97</v>
       </c>
       <c r="E47" s="2">
@@ -2602,7 +2603,7 @@
       <c r="B48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="4" t="s">
         <v>99</v>
       </c>
       <c r="E48" s="2">
@@ -2616,7 +2617,7 @@
       <c r="B49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="4" t="s">
         <v>101</v>
       </c>
       <c r="E49" s="2">
@@ -2630,7 +2631,7 @@
       <c r="B50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E50" s="2">
@@ -2644,7 +2645,7 @@
       <c r="B51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="4" t="s">
         <v>105</v>
       </c>
       <c r="E51" s="2">
@@ -2658,7 +2659,7 @@
       <c r="B52" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="4" t="s">
         <v>107</v>
       </c>
       <c r="E52" s="2">
@@ -2672,7 +2673,7 @@
       <c r="B53" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E53" s="2">
@@ -2686,7 +2687,7 @@
       <c r="B54" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" s="4" t="s">
         <v>111</v>
       </c>
       <c r="E54" s="2">
@@ -2700,7 +2701,7 @@
       <c r="B55" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="4" t="s">
         <v>113</v>
       </c>
       <c r="E55" s="2">
@@ -2714,7 +2715,7 @@
       <c r="B56" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="4" t="s">
         <v>115</v>
       </c>
       <c r="E56" s="2">
@@ -2728,7 +2729,7 @@
       <c r="B57" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="4" t="s">
         <v>117</v>
       </c>
       <c r="E57" s="2">
@@ -2742,7 +2743,7 @@
       <c r="B58" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="4" t="s">
         <v>119</v>
       </c>
       <c r="E58" s="2">
@@ -2756,7 +2757,7 @@
       <c r="B59" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E59" s="2">
@@ -2770,7 +2771,7 @@
       <c r="B60" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="4" t="s">
         <v>123</v>
       </c>
       <c r="E60" s="2">
@@ -2784,7 +2785,7 @@
       <c r="B61" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="4" t="s">
         <v>125</v>
       </c>
       <c r="E61" s="2">
@@ -2798,7 +2799,7 @@
       <c r="B62" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="4" t="s">
         <v>127</v>
       </c>
       <c r="E62" s="2">
@@ -2812,7 +2813,7 @@
       <c r="B63" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="4" t="s">
         <v>129</v>
       </c>
       <c r="E63" s="2">
@@ -2826,7 +2827,7 @@
       <c r="B64" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="4" t="s">
         <v>131</v>
       </c>
       <c r="E64" s="2">
@@ -2840,7 +2841,7 @@
       <c r="B65" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="4" t="s">
         <v>133</v>
       </c>
       <c r="E65" s="2">
@@ -2854,7 +2855,7 @@
       <c r="B66" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="4" t="s">
         <v>135</v>
       </c>
       <c r="E66" s="2">
@@ -2868,7 +2869,7 @@
       <c r="B67" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="4" t="s">
         <v>137</v>
       </c>
       <c r="E67" s="2">
@@ -2882,7 +2883,7 @@
       <c r="B68" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="4" t="s">
         <v>139</v>
       </c>
       <c r="E68" s="2">
@@ -2896,7 +2897,7 @@
       <c r="B69" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="4" t="s">
         <v>141</v>
       </c>
       <c r="E69" s="2">
@@ -2910,7 +2911,7 @@
       <c r="B70" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="4" t="s">
         <v>143</v>
       </c>
       <c r="E70" s="2">
@@ -2924,7 +2925,7 @@
       <c r="B71" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="4" t="s">
         <v>145</v>
       </c>
       <c r="E71" s="2">
@@ -2938,7 +2939,7 @@
       <c r="B72" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="4" t="s">
         <v>147</v>
       </c>
       <c r="E72" s="2">
@@ -2952,7 +2953,7 @@
       <c r="B73" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="4" t="s">
         <v>149</v>
       </c>
       <c r="E73" s="2">
@@ -2966,7 +2967,7 @@
       <c r="B74" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="4" t="s">
         <v>151</v>
       </c>
       <c r="E74" s="2">
@@ -2980,7 +2981,7 @@
       <c r="B75" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" s="4" t="s">
         <v>153</v>
       </c>
       <c r="E75" s="2">
@@ -2994,7 +2995,7 @@
       <c r="B76" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" s="4" t="s">
         <v>155</v>
       </c>
       <c r="E76" s="2">
@@ -3008,7 +3009,7 @@
       <c r="B77" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" s="4" t="s">
         <v>157</v>
       </c>
       <c r="E77" s="2">
@@ -3022,7 +3023,7 @@
       <c r="B78" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" s="4" t="s">
         <v>159</v>
       </c>
       <c r="E78" s="2">
@@ -3036,7 +3037,7 @@
       <c r="B79" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E79" s="2">
@@ -3050,7 +3051,7 @@
       <c r="B80" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" s="4" t="s">
         <v>161</v>
       </c>
       <c r="E80" s="2">
@@ -3064,7 +3065,7 @@
       <c r="B81" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" s="4" t="s">
         <v>164</v>
       </c>
       <c r="E81" s="2">
@@ -3078,7 +3079,7 @@
       <c r="B82" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" s="4" t="s">
         <v>166</v>
       </c>
       <c r="E82" s="2">
@@ -3092,7 +3093,7 @@
       <c r="B83" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" s="4" t="s">
         <v>168</v>
       </c>
       <c r="E83" s="2">
@@ -3106,7 +3107,7 @@
       <c r="B84" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" s="4" t="s">
         <v>170</v>
       </c>
       <c r="E84" s="2">
@@ -3120,7 +3121,7 @@
       <c r="B85" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" s="4" t="s">
         <v>172</v>
       </c>
       <c r="E85" s="2">
@@ -3134,7 +3135,7 @@
       <c r="B86" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" s="4" t="s">
         <v>174</v>
       </c>
       <c r="E86" s="2">
@@ -3148,7 +3149,7 @@
       <c r="B87" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" s="4" t="s">
         <v>139</v>
       </c>
       <c r="E87" s="2">
@@ -3162,7 +3163,7 @@
       <c r="B88" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" s="4" t="s">
         <v>177</v>
       </c>
       <c r="E88" s="2">
@@ -3176,7 +3177,7 @@
       <c r="B89" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" s="4" t="s">
         <v>179</v>
       </c>
       <c r="E89" s="2">
@@ -3190,7 +3191,7 @@
       <c r="B90" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" s="4" t="s">
         <v>181</v>
       </c>
       <c r="E90" s="2">
@@ -3204,7 +3205,7 @@
       <c r="B91" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" s="4" t="s">
         <v>183</v>
       </c>
       <c r="E91" s="2">
@@ -3218,7 +3219,7 @@
       <c r="B92" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" s="4" t="s">
         <v>185</v>
       </c>
       <c r="E92" s="2">
@@ -3232,7 +3233,7 @@
       <c r="B93" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" s="4" t="s">
         <v>187</v>
       </c>
       <c r="E93" s="2">
@@ -3246,7 +3247,7 @@
       <c r="B94" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" s="4" t="s">
         <v>189</v>
       </c>
       <c r="E94" s="2">
@@ -3260,7 +3261,7 @@
       <c r="B95" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" s="4" t="s">
         <v>191</v>
       </c>
       <c r="E95" s="2">
@@ -3274,7 +3275,7 @@
       <c r="B96" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" s="4" t="s">
         <v>193</v>
       </c>
       <c r="E96" s="2">
@@ -3288,7 +3289,7 @@
       <c r="B97" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" s="4" t="s">
         <v>195</v>
       </c>
       <c r="E97" s="2">
@@ -3302,7 +3303,7 @@
       <c r="B98" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" s="4" t="s">
         <v>197</v>
       </c>
       <c r="E98" s="2">
@@ -3316,7 +3317,7 @@
       <c r="B99" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" s="4" t="s">
         <v>199</v>
       </c>
       <c r="E99" s="2">
@@ -3330,7 +3331,7 @@
       <c r="B100" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" s="4" t="s">
         <v>201</v>
       </c>
       <c r="E100" s="2">
@@ -3344,7 +3345,7 @@
       <c r="B101" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" s="4" t="s">
         <v>203</v>
       </c>
       <c r="E101" s="2">
@@ -3358,7 +3359,7 @@
       <c r="B102" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" s="4" t="s">
         <v>206</v>
       </c>
       <c r="E102" s="2">
@@ -3372,7 +3373,7 @@
       <c r="B103" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" s="4" t="s">
         <v>208</v>
       </c>
       <c r="E103" s="2">
@@ -3386,7 +3387,7 @@
       <c r="B104" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" s="4" t="s">
         <v>210</v>
       </c>
       <c r="E104" s="2">
@@ -3400,7 +3401,7 @@
       <c r="B105" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" s="4" t="s">
         <v>212</v>
       </c>
       <c r="E105" s="2">
@@ -3414,7 +3415,7 @@
       <c r="B106" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" s="4" t="s">
         <v>214</v>
       </c>
       <c r="E106" s="2">
@@ -3428,7 +3429,7 @@
       <c r="B107" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" s="4" t="s">
         <v>216</v>
       </c>
       <c r="E107" s="2">
@@ -3442,7 +3443,7 @@
       <c r="B108" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" s="4" t="s">
         <v>218</v>
       </c>
       <c r="E108" s="2">
@@ -3456,7 +3457,7 @@
       <c r="B109" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" s="4" t="s">
         <v>220</v>
       </c>
       <c r="E109" s="2">
@@ -3470,7 +3471,7 @@
       <c r="B110" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" s="4" t="s">
         <v>222</v>
       </c>
       <c r="E110" s="2">
@@ -3484,7 +3485,7 @@
       <c r="B111" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E111" s="2">
@@ -3498,7 +3499,7 @@
       <c r="B112" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" s="4" t="s">
         <v>225</v>
       </c>
       <c r="E112" s="2">
@@ -3512,7 +3513,7 @@
       <c r="B113" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" s="4" t="s">
         <v>227</v>
       </c>
       <c r="E113" s="2">
@@ -3526,7 +3527,7 @@
       <c r="B114" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" s="4" t="s">
         <v>229</v>
       </c>
       <c r="E114" s="2">
@@ -3540,7 +3541,7 @@
       <c r="B115" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" s="4" t="s">
         <v>231</v>
       </c>
       <c r="E115" s="2">
@@ -3554,7 +3555,7 @@
       <c r="B116" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" s="4" t="s">
         <v>233</v>
       </c>
       <c r="E116" s="2">
@@ -3568,7 +3569,7 @@
       <c r="B117" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" s="4" t="s">
         <v>235</v>
       </c>
       <c r="E117" s="2">
@@ -3582,7 +3583,7 @@
       <c r="B118" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" s="4" t="s">
         <v>237</v>
       </c>
       <c r="E118" s="2">
@@ -3596,7 +3597,7 @@
       <c r="B119" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" s="4" t="s">
         <v>239</v>
       </c>
       <c r="E119" s="2">
@@ -3610,7 +3611,7 @@
       <c r="B120" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" s="4" t="s">
         <v>241</v>
       </c>
       <c r="E120" s="2">
@@ -3624,7 +3625,7 @@
       <c r="B121" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" s="4" t="s">
         <v>243</v>
       </c>
       <c r="E121" s="2">
@@ -3638,7 +3639,7 @@
       <c r="B122" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" s="4" t="s">
         <v>245</v>
       </c>
       <c r="E122" s="2">
@@ -3652,7 +3653,7 @@
       <c r="B123" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" s="4" t="s">
         <v>247</v>
       </c>
       <c r="E123" s="2">
@@ -3666,7 +3667,7 @@
       <c r="B124" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="4" t="s">
         <v>249</v>
       </c>
       <c r="E124" s="2">
@@ -3680,7 +3681,7 @@
       <c r="B125" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" s="4" t="s">
         <v>251</v>
       </c>
       <c r="E125" s="2">
@@ -3694,7 +3695,7 @@
       <c r="B126" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" s="4" t="s">
         <v>253</v>
       </c>
       <c r="E126" s="2">
@@ -3708,7 +3709,7 @@
       <c r="B127" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" s="4" t="s">
         <v>255</v>
       </c>
       <c r="E127" s="2">
@@ -3722,7 +3723,7 @@
       <c r="B128" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" s="4" t="s">
         <v>257</v>
       </c>
       <c r="E128" s="2">
@@ -3736,7 +3737,7 @@
       <c r="B129" s="3" t="s">
         <v>259</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" s="4" t="s">
         <v>260</v>
       </c>
       <c r="E129" s="2">
@@ -3750,7 +3751,7 @@
       <c r="B130" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" s="4" t="s">
         <v>262</v>
       </c>
       <c r="E130" s="2">
@@ -3764,7 +3765,7 @@
       <c r="B131" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" s="4" t="s">
         <v>264</v>
       </c>
       <c r="E131" s="2">
@@ -3778,7 +3779,7 @@
       <c r="B132" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" s="4" t="s">
         <v>266</v>
       </c>
       <c r="E132" s="2">
@@ -3792,7 +3793,7 @@
       <c r="B133" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" s="4" t="s">
         <v>268</v>
       </c>
       <c r="E133" s="2">
@@ -3806,7 +3807,7 @@
       <c r="B134" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" s="4" t="s">
         <v>270</v>
       </c>
       <c r="E134" s="2">
@@ -3820,7 +3821,7 @@
       <c r="B135" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" s="4" t="s">
         <v>272</v>
       </c>
       <c r="E135" s="2">
@@ -3834,7 +3835,7 @@
       <c r="B136" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" s="4" t="s">
         <v>274</v>
       </c>
       <c r="E136" s="2">
@@ -3848,7 +3849,7 @@
       <c r="B137" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" s="4" t="s">
         <v>276</v>
       </c>
       <c r="E137" s="2">
@@ -3862,7 +3863,7 @@
       <c r="B138" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" s="4" t="s">
         <v>278</v>
       </c>
       <c r="E138" s="2">
@@ -3876,7 +3877,7 @@
       <c r="B139" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" s="4" t="s">
         <v>280</v>
       </c>
       <c r="E139" s="2">
@@ -3890,7 +3891,7 @@
       <c r="B140" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" s="4" t="s">
         <v>282</v>
       </c>
       <c r="E140" s="2">
@@ -3904,7 +3905,7 @@
       <c r="B141" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" s="4" t="s">
         <v>284</v>
       </c>
       <c r="E141" s="2">
@@ -3918,7 +3919,7 @@
       <c r="B142" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" s="4" t="s">
         <v>286</v>
       </c>
       <c r="E142" s="2">
@@ -3932,7 +3933,7 @@
       <c r="B143" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" s="4" t="s">
         <v>56</v>
       </c>
       <c r="E143" s="2">
@@ -3946,7 +3947,7 @@
       <c r="B144" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" s="4" t="s">
         <v>289</v>
       </c>
       <c r="E144" s="2">
@@ -3960,7 +3961,7 @@
       <c r="B145" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" s="4" t="s">
         <v>291</v>
       </c>
       <c r="E145" s="2">
@@ -3974,7 +3975,7 @@
       <c r="B146" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" s="4" t="s">
         <v>293</v>
       </c>
       <c r="E146" s="2">
@@ -3988,7 +3989,7 @@
       <c r="B147" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="4" t="s">
         <v>295</v>
       </c>
       <c r="E147" s="2">
@@ -4002,7 +4003,7 @@
       <c r="B148" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" s="4" t="s">
         <v>297</v>
       </c>
       <c r="E148" s="2">
@@ -4016,7 +4017,7 @@
       <c r="B149" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" s="4" t="s">
         <v>299</v>
       </c>
       <c r="E149" s="2">
@@ -4030,7 +4031,7 @@
       <c r="B150" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" s="4" t="s">
         <v>301</v>
       </c>
       <c r="E150" s="2">
@@ -4044,7 +4045,7 @@
       <c r="B151" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" s="4" t="s">
         <v>303</v>
       </c>
       <c r="E151" s="2">
@@ -4058,7 +4059,7 @@
       <c r="B152" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" s="4" t="s">
         <v>305</v>
       </c>
       <c r="E152" s="2">
@@ -4072,7 +4073,7 @@
       <c r="B153" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" s="4" t="s">
         <v>307</v>
       </c>
       <c r="E153" s="2">
@@ -4086,7 +4087,7 @@
       <c r="B154" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" s="4" t="s">
         <v>309</v>
       </c>
       <c r="E154" s="2">
@@ -4100,7 +4101,7 @@
       <c r="B155" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" s="4" t="s">
         <v>311</v>
       </c>
       <c r="E155" s="2">
@@ -4114,7 +4115,7 @@
       <c r="B156" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" s="4" t="s">
         <v>313</v>
       </c>
       <c r="E156" s="2">
@@ -4128,7 +4129,7 @@
       <c r="B157" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" s="4" t="s">
         <v>315</v>
       </c>
       <c r="E157" s="2">
@@ -4142,7 +4143,7 @@
       <c r="B158" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" s="4" t="s">
         <v>317</v>
       </c>
       <c r="E158" s="2">
@@ -4156,7 +4157,7 @@
       <c r="B159" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" s="4" t="s">
         <v>319</v>
       </c>
       <c r="E159" s="2">
@@ -4170,7 +4171,7 @@
       <c r="B160" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" s="4" t="s">
         <v>321</v>
       </c>
       <c r="E160" s="2">
@@ -4184,7 +4185,7 @@
       <c r="B161" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" s="4" t="s">
         <v>323</v>
       </c>
       <c r="E161" s="2">
@@ -4198,7 +4199,7 @@
       <c r="B162" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" s="4" t="s">
         <v>325</v>
       </c>
       <c r="E162" s="2">
@@ -4212,7 +4213,7 @@
       <c r="B163" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" s="4" t="s">
         <v>327</v>
       </c>
       <c r="E163" s="2">
@@ -4226,7 +4227,7 @@
       <c r="B164" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" s="4" t="s">
         <v>329</v>
       </c>
       <c r="E164" s="2">
@@ -4240,7 +4241,7 @@
       <c r="B165" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" s="4" t="s">
         <v>331</v>
       </c>
       <c r="E165" s="2">
@@ -4254,7 +4255,7 @@
       <c r="B166" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" s="4" t="s">
         <v>333</v>
       </c>
       <c r="E166" s="2">
@@ -4268,7 +4269,7 @@
       <c r="B167" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" s="4" t="s">
         <v>335</v>
       </c>
       <c r="E167" s="2">
@@ -4282,7 +4283,7 @@
       <c r="B168" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" s="4" t="s">
         <v>337</v>
       </c>
       <c r="E168" s="2">
@@ -4296,7 +4297,7 @@
       <c r="B169" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" s="4" t="s">
         <v>339</v>
       </c>
       <c r="E169" s="2">
@@ -4310,7 +4311,7 @@
       <c r="B170" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" s="4" t="s">
         <v>341</v>
       </c>
       <c r="E170" s="2">
@@ -4324,7 +4325,7 @@
       <c r="B171" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" s="4" t="s">
         <v>343</v>
       </c>
       <c r="E171" s="2">
@@ -4338,7 +4339,7 @@
       <c r="B172" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" s="4" t="s">
         <v>345</v>
       </c>
       <c r="E172" s="2">
@@ -4352,7 +4353,7 @@
       <c r="B173" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" s="4" t="s">
         <v>347</v>
       </c>
       <c r="E173" s="2">
@@ -4366,7 +4367,7 @@
       <c r="B174" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" s="4" t="s">
         <v>349</v>
       </c>
       <c r="E174" s="2">
@@ -4380,7 +4381,7 @@
       <c r="B175" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" s="4" t="s">
         <v>351</v>
       </c>
       <c r="E175" s="2">
@@ -4394,7 +4395,7 @@
       <c r="B176" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" s="4" t="s">
         <v>353</v>
       </c>
       <c r="E176" s="2">
@@ -4408,7 +4409,7 @@
       <c r="B177" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E177" s="2">
@@ -4422,7 +4423,7 @@
       <c r="B178" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" s="4" t="s">
         <v>357</v>
       </c>
       <c r="E178" s="2">
@@ -4436,7 +4437,7 @@
       <c r="B179" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" s="4" t="s">
         <v>359</v>
       </c>
       <c r="E179" s="2">
@@ -4450,7 +4451,7 @@
       <c r="B180" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" s="4" t="s">
         <v>361</v>
       </c>
       <c r="E180" s="2">
@@ -4464,7 +4465,7 @@
       <c r="B181" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" s="4" t="s">
         <v>363</v>
       </c>
       <c r="E181" s="2">
@@ -4478,7 +4479,7 @@
       <c r="B182" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" s="4" t="s">
         <v>365</v>
       </c>
       <c r="E182" s="2">
@@ -4492,7 +4493,7 @@
       <c r="B183" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" s="4" t="s">
         <v>367</v>
       </c>
       <c r="E183" s="2">
@@ -4506,7 +4507,7 @@
       <c r="B184" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" s="4" t="s">
         <v>369</v>
       </c>
       <c r="E184" s="2">
@@ -4520,7 +4521,7 @@
       <c r="B185" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" s="4" t="s">
         <v>371</v>
       </c>
       <c r="E185" s="2">
@@ -4534,7 +4535,7 @@
       <c r="B186" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" s="4" t="s">
         <v>373</v>
       </c>
       <c r="E186" s="2">
@@ -4548,7 +4549,7 @@
       <c r="B187" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" s="4" t="s">
         <v>375</v>
       </c>
       <c r="E187" s="2">
@@ -4562,7 +4563,7 @@
       <c r="B188" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" s="4" t="s">
         <v>377</v>
       </c>
       <c r="E188" s="2">
@@ -4576,7 +4577,7 @@
       <c r="B189" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" s="4" t="s">
         <v>380</v>
       </c>
       <c r="E189" s="2">
@@ -4590,7 +4591,7 @@
       <c r="B190" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" s="4" t="s">
         <v>383</v>
       </c>
       <c r="E190" s="2">
@@ -4604,7 +4605,7 @@
       <c r="B191" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" s="4" t="s">
         <v>385</v>
       </c>
       <c r="E191" s="2">
@@ -4618,7 +4619,7 @@
       <c r="B192" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" s="4" t="s">
         <v>387</v>
       </c>
       <c r="E192" s="2">
@@ -4632,7 +4633,7 @@
       <c r="B193" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" s="4" t="s">
         <v>389</v>
       </c>
       <c r="E193" s="2">
@@ -4646,7 +4647,7 @@
       <c r="B194" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" s="4" t="s">
         <v>391</v>
       </c>
       <c r="E194" s="2">
@@ -4660,7 +4661,7 @@
       <c r="B195" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" s="4" t="s">
         <v>393</v>
       </c>
       <c r="E195" s="2">
@@ -4674,7 +4675,7 @@
       <c r="B196" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" s="4" t="s">
         <v>395</v>
       </c>
       <c r="E196" s="2">
@@ -4688,7 +4689,7 @@
       <c r="B197" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" s="4" t="s">
         <v>397</v>
       </c>
       <c r="E197" s="2">
@@ -4702,7 +4703,7 @@
       <c r="B198" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" s="4" t="s">
         <v>399</v>
       </c>
       <c r="E198" s="2">
@@ -4716,7 +4717,7 @@
       <c r="B199" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" s="4" t="s">
         <v>401</v>
       </c>
       <c r="E199" s="2">
@@ -4730,7 +4731,7 @@
       <c r="B200" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" s="4" t="s">
         <v>403</v>
       </c>
       <c r="E200" s="2">
@@ -4744,7 +4745,7 @@
       <c r="B201" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" s="4" t="s">
         <v>405</v>
       </c>
       <c r="E201" s="2">
@@ -4758,7 +4759,7 @@
       <c r="B202" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" s="4" t="s">
         <v>407</v>
       </c>
       <c r="E202" s="2">
@@ -4772,7 +4773,7 @@
       <c r="B203" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" s="4" t="s">
         <v>409</v>
       </c>
       <c r="E203" s="2">
@@ -4786,7 +4787,7 @@
       <c r="B204" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" s="4" t="s">
         <v>411</v>
       </c>
       <c r="E204" s="2">
@@ -4800,7 +4801,7 @@
       <c r="B205" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" s="4" t="s">
         <v>413</v>
       </c>
       <c r="E205" s="2">
@@ -4814,7 +4815,7 @@
       <c r="B206" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" s="4" t="s">
         <v>415</v>
       </c>
       <c r="E206" s="2">
@@ -4828,7 +4829,7 @@
       <c r="B207" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" s="4" t="s">
         <v>417</v>
       </c>
       <c r="E207" s="2">
@@ -4842,7 +4843,7 @@
       <c r="B208" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" s="4" t="s">
         <v>419</v>
       </c>
       <c r="E208" s="2">
@@ -4856,7 +4857,7 @@
       <c r="B209" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" s="4" t="s">
         <v>421</v>
       </c>
       <c r="E209" s="2">
@@ -4870,7 +4871,7 @@
       <c r="B210" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" s="4" t="s">
         <v>421</v>
       </c>
       <c r="E210" s="2">
@@ -4884,7 +4885,7 @@
       <c r="B211" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" s="4" t="s">
         <v>424</v>
       </c>
       <c r="E211" s="2">
@@ -4898,7 +4899,7 @@
       <c r="B212" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" s="4" t="s">
         <v>424</v>
       </c>
       <c r="E212" s="2">
@@ -4912,7 +4913,7 @@
       <c r="B213" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" s="4" t="s">
         <v>427</v>
       </c>
       <c r="E213" s="2">
@@ -4926,7 +4927,7 @@
       <c r="B214" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" s="4" t="s">
         <v>429</v>
       </c>
       <c r="E214" s="2">
@@ -4940,7 +4941,7 @@
       <c r="B215" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" s="4" t="s">
         <v>431</v>
       </c>
       <c r="E215" s="2">
@@ -4954,7 +4955,7 @@
       <c r="B216" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C216" s="4" t="s">
         <v>433</v>
       </c>
       <c r="E216" s="2">
@@ -4968,7 +4969,7 @@
       <c r="B217" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C217" s="4" t="s">
         <v>435</v>
       </c>
       <c r="E217" s="2">
@@ -4982,7 +4983,7 @@
       <c r="B218" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C218" s="4" t="s">
         <v>437</v>
       </c>
       <c r="E218" s="2">
@@ -4996,7 +4997,7 @@
       <c r="B219" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" s="4" t="s">
         <v>439</v>
       </c>
       <c r="E219" s="2">
@@ -5010,7 +5011,7 @@
       <c r="B220" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" s="4" t="s">
         <v>441</v>
       </c>
       <c r="E220" s="2">
@@ -5024,7 +5025,7 @@
       <c r="B221" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" s="4" t="s">
         <v>443</v>
       </c>
       <c r="E221" s="2">
@@ -5038,7 +5039,7 @@
       <c r="B222" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" s="4" t="s">
         <v>445</v>
       </c>
       <c r="E222" s="2">
@@ -5052,7 +5053,7 @@
       <c r="B223" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C223" s="4" t="s">
         <v>447</v>
       </c>
       <c r="E223" s="2">
@@ -5066,7 +5067,7 @@
       <c r="B224" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C224" s="4" t="s">
         <v>449</v>
       </c>
       <c r="E224" s="2">
@@ -5080,7 +5081,7 @@
       <c r="B225" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="C225" s="3" t="s">
+      <c r="C225" s="4" t="s">
         <v>452</v>
       </c>
       <c r="E225" s="3">
@@ -5094,7 +5095,7 @@
       <c r="B226" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C226" s="3" t="s">
+      <c r="C226" s="4" t="s">
         <v>454</v>
       </c>
       <c r="E226" s="3">
@@ -5108,7 +5109,7 @@
       <c r="B227" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C227" s="3" t="s">
+      <c r="C227" s="4" t="s">
         <v>457</v>
       </c>
       <c r="E227" s="3">
@@ -5122,7 +5123,7 @@
       <c r="B228" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" s="4" t="s">
         <v>459</v>
       </c>
       <c r="E228" s="2">
@@ -5136,7 +5137,7 @@
       <c r="B229" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C229" s="4" t="s">
         <v>461</v>
       </c>
       <c r="E229" s="2">
@@ -5150,7 +5151,7 @@
       <c r="B230" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" s="4" t="s">
         <v>463</v>
       </c>
       <c r="E230" s="2">
@@ -5164,7 +5165,7 @@
       <c r="B231" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C231" s="4" t="s">
         <v>465</v>
       </c>
       <c r="E231" s="2">
@@ -5178,7 +5179,7 @@
       <c r="B232" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" s="4" t="s">
         <v>467</v>
       </c>
       <c r="E232" s="2">
@@ -5192,7 +5193,7 @@
       <c r="B233" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" s="4" t="s">
         <v>469</v>
       </c>
       <c r="E233" s="2">
@@ -5206,7 +5207,7 @@
       <c r="B234" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" s="4" t="s">
         <v>471</v>
       </c>
       <c r="E234" s="2">
@@ -5220,7 +5221,7 @@
       <c r="B235" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C235" s="4" t="s">
         <v>445</v>
       </c>
       <c r="E235" s="2">
@@ -5234,7 +5235,7 @@
       <c r="B236" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C236" s="4" t="s">
         <v>474</v>
       </c>
       <c r="E236" s="2">
@@ -5248,7 +5249,7 @@
       <c r="B237" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C237" s="4" t="s">
         <v>449</v>
       </c>
       <c r="E237" s="2">
@@ -5262,7 +5263,7 @@
       <c r="B238" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C238" s="4" t="s">
         <v>477</v>
       </c>
       <c r="E238" s="2">
@@ -5276,7 +5277,7 @@
       <c r="B239" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C239" s="4" t="s">
         <v>454</v>
       </c>
       <c r="E239" s="2">
@@ -5290,7 +5291,7 @@
       <c r="B240" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C240" s="4" t="s">
         <v>480</v>
       </c>
       <c r="E240" s="2">
@@ -5304,7 +5305,7 @@
       <c r="B241" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C241" s="4" t="s">
         <v>482</v>
       </c>
       <c r="E241" s="2">
@@ -5318,7 +5319,7 @@
       <c r="B242" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C242" s="4" t="s">
         <v>484</v>
       </c>
       <c r="E242" s="2">
@@ -5332,7 +5333,7 @@
       <c r="B243" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" s="4" t="s">
         <v>486</v>
       </c>
       <c r="E243" s="2">
@@ -5346,7 +5347,7 @@
       <c r="B244" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C244" s="4" t="s">
         <v>488</v>
       </c>
       <c r="E244" s="2">
@@ -5360,7 +5361,7 @@
       <c r="B245" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C245" s="4" t="s">
         <v>490</v>
       </c>
       <c r="E245" s="2">
@@ -5374,7 +5375,7 @@
       <c r="B246" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C246" s="4" t="s">
         <v>492</v>
       </c>
       <c r="E246" s="2">
@@ -5388,7 +5389,7 @@
       <c r="B247" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C247" s="4" t="s">
         <v>495</v>
       </c>
       <c r="E247" s="2">
@@ -5402,7 +5403,7 @@
       <c r="B248" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="C248" s="4" t="s">
         <v>497</v>
       </c>
       <c r="E248" s="2">
@@ -5416,7 +5417,7 @@
       <c r="B249" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C249" s="4" t="s">
         <v>499</v>
       </c>
       <c r="E249" s="2">
@@ -5430,7 +5431,7 @@
       <c r="B250" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C250" s="4" t="s">
         <v>501</v>
       </c>
       <c r="E250" s="2">
@@ -5444,7 +5445,7 @@
       <c r="B251" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C251" s="4" t="s">
         <v>503</v>
       </c>
       <c r="E251" s="2">
@@ -5458,7 +5459,7 @@
       <c r="B252" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C252" s="4" t="s">
         <v>445</v>
       </c>
       <c r="E252" s="2">
@@ -5472,7 +5473,7 @@
       <c r="B253" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="C253" s="4" t="s">
         <v>506</v>
       </c>
       <c r="E253" s="2">
@@ -5486,7 +5487,7 @@
       <c r="B254" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="C254" s="4" t="s">
         <v>508</v>
       </c>
       <c r="E254" s="2">
@@ -5500,7 +5501,7 @@
       <c r="B255" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C255" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E255" s="2">
@@ -5514,7 +5515,7 @@
       <c r="B256" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C256" s="4" t="s">
         <v>511</v>
       </c>
       <c r="E256" s="2">
@@ -5528,7 +5529,7 @@
       <c r="B257" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C257" s="4" t="s">
         <v>513</v>
       </c>
       <c r="E257" s="2">
@@ -5542,7 +5543,7 @@
       <c r="B258" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C258" s="4" t="s">
         <v>179</v>
       </c>
       <c r="E258" s="2">
@@ -5556,7 +5557,7 @@
       <c r="B259" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C259" s="4" t="s">
         <v>513</v>
       </c>
       <c r="E259" s="2">
@@ -5570,7 +5571,7 @@
       <c r="B260" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C260" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E260" s="2">
@@ -5584,7 +5585,7 @@
       <c r="B261" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C261" s="4" t="s">
         <v>518</v>
       </c>
       <c r="E261" s="2">
@@ -5598,7 +5599,7 @@
       <c r="B262" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C262" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E262" s="2">
@@ -5612,7 +5613,7 @@
       <c r="B263" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="C263" s="4" t="s">
         <v>513</v>
       </c>
       <c r="E263" s="2">
@@ -5626,7 +5627,7 @@
       <c r="B264" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C264" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E264" s="2">
@@ -5640,7 +5641,7 @@
       <c r="B265" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="C265" s="4" t="s">
         <v>518</v>
       </c>
       <c r="E265" s="2">
@@ -5654,7 +5655,7 @@
       <c r="B266" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="C266" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E266" s="2">
@@ -5668,7 +5669,7 @@
       <c r="B267" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="C267" s="4" t="s">
         <v>518</v>
       </c>
       <c r="E267" s="2">
@@ -5682,7 +5683,7 @@
       <c r="B268" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="C268" s="4" t="s">
         <v>179</v>
       </c>
       <c r="E268" s="2">

--- a/CustomLocalization/Localization/RogueTech/RU/Jihad Flashpoint/LocalizationDef.xlsx
+++ b/CustomLocalization/Localization/RogueTech/RU/Jihad Flashpoint/LocalizationDef.xlsx
@@ -1927,15 +1927,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="C270" sqref="C270"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="C258" sqref="C258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="75.28515625" customWidth="1" style="2"/>
-    <col min="4" max="5" width="9.140625" customWidth="1" style="2"/>
-    <col min="6" max="16384" width="9.140625" customWidth="1" style="2"/>
+    <col min="4" max="6" width="9.140625" customWidth="1" style="2"/>
+    <col min="7" max="16384" width="9.140625" customWidth="1" style="2"/>
   </cols>
   <sheetData>
     <row r="1">
